--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,9 +418,6 @@
         <v>name001</v>
       </c>
       <c r="B2" t="str">
-        <v>name001_2024-8-28.xlsx</v>
-      </c>
-      <c r="C2" t="str">
         <v>name001_2024-8-29.xlsx</v>
       </c>
     </row>
@@ -435,17 +432,9 @@
         <v>name002_2024-8-29.xlsx</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>name003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>name003_2024-8-29.xlsx</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,44 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Order 1</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Order 2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>name001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>name001_2024-8-29.xlsx</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>name002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>name002_2024-8-28.xlsx</v>
-      </c>
-      <c r="C3" t="str">
-        <v>name002_2024-8-29.xlsx</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,13 +397,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Order 1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>name001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>name001_2024-9-12.xlsx</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>name002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>name002_2024-9-14.xlsx</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/customs/customs.xlsx
+++ b/DateBase/customs/customs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,9 +426,17 @@
         <v>name002_2024-9-14.xlsx</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>name003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>name003_2024-9-15.xlsx</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>